--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori1/123/word_level_predictions_123.xlsx
@@ -9781,7 +9781,7 @@
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G180" s="2" t="b">
@@ -9793,11 +9793,11 @@
         </is>
       </c>
       <c r="I180" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K180" s="2" t="b">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9845,11 +9845,11 @@
         </is>
       </c>
       <c r="I181" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K181" s="2" t="b">
@@ -9897,11 +9897,11 @@
         </is>
       </c>
       <c r="I182" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K182" s="2" t="b">
@@ -9949,11 +9949,11 @@
         </is>
       </c>
       <c r="I183" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K183" s="2" t="b">
@@ -10001,11 +10001,11 @@
         </is>
       </c>
       <c r="I184" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K184" s="2" t="b">
@@ -10053,11 +10053,11 @@
         </is>
       </c>
       <c r="I185" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K185" s="2" t="b">
@@ -10105,11 +10105,11 @@
         </is>
       </c>
       <c r="I186" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K186" s="2" t="b">
@@ -10157,11 +10157,11 @@
         </is>
       </c>
       <c r="I187" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K187" s="2" t="b">
@@ -10209,11 +10209,11 @@
         </is>
       </c>
       <c r="I188" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K188" s="2" t="b">
@@ -10261,11 +10261,11 @@
         </is>
       </c>
       <c r="I189" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K189" s="2" t="b">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G190" s="2" t="b">
@@ -10313,11 +10313,11 @@
         </is>
       </c>
       <c r="I190" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K190" s="2" t="b">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="L190" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori1/123/word_level_predictions_123.xlsx
@@ -9781,7 +9781,7 @@
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G180" s="2" t="b">
@@ -9793,11 +9793,11 @@
         </is>
       </c>
       <c r="I180" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K180" s="2" t="b">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9845,11 +9845,11 @@
         </is>
       </c>
       <c r="I181" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K181" s="2" t="b">
@@ -9897,11 +9897,11 @@
         </is>
       </c>
       <c r="I182" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K182" s="2" t="b">
@@ -9949,11 +9949,11 @@
         </is>
       </c>
       <c r="I183" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K183" s="2" t="b">
@@ -10001,11 +10001,11 @@
         </is>
       </c>
       <c r="I184" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K184" s="2" t="b">
@@ -10053,11 +10053,11 @@
         </is>
       </c>
       <c r="I185" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K185" s="2" t="b">
@@ -10105,11 +10105,11 @@
         </is>
       </c>
       <c r="I186" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K186" s="2" t="b">
@@ -10157,11 +10157,11 @@
         </is>
       </c>
       <c r="I187" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K187" s="2" t="b">
@@ -10209,11 +10209,11 @@
         </is>
       </c>
       <c r="I188" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K188" s="2" t="b">
@@ -10261,11 +10261,11 @@
         </is>
       </c>
       <c r="I189" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K189" s="2" t="b">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G190" s="2" t="b">
@@ -10313,11 +10313,11 @@
         </is>
       </c>
       <c r="I190" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K190" s="2" t="b">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="L190" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
